--- a/medicine/Sexualité et sexologie/Helga,_de_la_vie_intime_d'une_jeune_femme/Helga,_de_la_vie_intime_d'une_jeune_femme.xlsx
+++ b/medicine/Sexualité et sexologie/Helga,_de_la_vie_intime_d'une_jeune_femme/Helga,_de_la_vie_intime_d'une_jeune_femme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Helga,_de_la_vie_intime_d%27une_jeune_femme</t>
+          <t>Helga,_de_la_vie_intime_d'une_jeune_femme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Helga, de la vie intime d'une jeune femme (Helga – Vom Werden des menschlichen Lebens) est un film documentaire allemand réalisé par Erich F. Bender et sorti en 1967. Co-produit par le ministère de la santé allemand, il évoque la contraception, la grossesse et comporte une scène crue d'accouchement, mais n'a pas été interdit aux moins de 18 ans[1].
-Ce film sur l'éducation sexuelle, sorti en France à l'époque des évènements de mai 1968, a été le plus gros succès au box office en France pour un film allemand avec 4 121 349 entrées en 1968[2]. Il a fait encore plus d'entrées dans d'autres pays européens, à l'instar de l'Italie où il a réuni 8 080 808 spectateurs dans les salles, le propulsant en 1re position du box-office italien 1967-68.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helga, de la vie intime d'une jeune femme (Helga – Vom Werden des menschlichen Lebens) est un film documentaire allemand réalisé par Erich F. Bender et sorti en 1967. Co-produit par le ministère de la santé allemand, il évoque la contraception, la grossesse et comporte une scène crue d'accouchement, mais n'a pas été interdit aux moins de 18 ans.
+Ce film sur l'éducation sexuelle, sorti en France à l'époque des évènements de mai 1968, a été le plus gros succès au box office en France pour un film allemand avec 4 121 349 entrées en 1968. Il a fait encore plus d'entrées dans d'autres pays européens, à l'instar de l'Italie où il a réuni 8 080 808 spectateurs dans les salles, le propulsant en 1re position du box-office italien 1967-68.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Helga,_de_la_vie_intime_d%27une_jeune_femme</t>
+          <t>Helga,_de_la_vie_intime_d'une_jeune_femme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film raconte la vie intime d'Helga, une jeune femme allemande. Inexpérimentée, elle veut se marier. Un gynécologue lui parle des rapports sexuels et du contrôle des naissances. Elle tombe enceinte et assiste à un cours pour les futures mamans. La naissance de son premier bébé est montrée en détail. Elle est une mère heureuse et donne naissance à trois autres enfants.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Helga,_de_la_vie_intime_d%27une_jeune_femme</t>
+          <t>Helga,_de_la_vie_intime_d'une_jeune_femme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original Helga – Vom Werden des menschlichen Lebens
 Titre français : Helga, de la vie intime d'une jeune femme
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Helga,_de_la_vie_intime_d%27une_jeune_femme</t>
+          <t>Helga,_de_la_vie_intime_d'une_jeune_femme</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ruth Gassmann (de) : Helga
 Eberhard Mondry (de) : le mari d'Helga</t>
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Helga,_de_la_vie_intime_d%27une_jeune_femme</t>
+          <t>Helga,_de_la_vie_intime_d'une_jeune_femme</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,10 +637,12 @@
           <t>Réception</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est la première fois qu'un accouchement est montré intégralement à l'écran en Allemagne[3].
-Le film arrive 5e au nombre d'entrées en 1968 en France avec 4,1 millions d'entrées[4], et plus de 4 millions de spectateurs en Allemagne[3]. Le film reçoit des réactions nuancées de la part d'éducateurs et de médecins[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est la première fois qu'un accouchement est montré intégralement à l'écran en Allemagne.
+Le film arrive 5e au nombre d'entrées en 1968 en France avec 4,1 millions d'entrées, et plus de 4 millions de spectateurs en Allemagne. Le film reçoit des réactions nuancées de la part d'éducateurs et de médecins.
 </t>
         </is>
       </c>
